--- a/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 02/02_04/Splitting columns into rows.xlsx
+++ b/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 02/02_04/Splitting columns into rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emgarcia/_________Course Production/_______2022/Q3 2022/Excel Managing and Analyzing Data (2022)/2_Project/Exercise Files/Chap 02/02_04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgizaykov/Desktop/Data-Science-Projects/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 02/02_04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE302AF-56AA-3441-9369-5E9EF617618F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AE1C15-51FD-5247-A4F1-BC13330FEBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22140" windowHeight="12540" xr2:uid="{71B8CDB1-5424-473E-9AE0-27F2C4D6F6F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{71B8CDB1-5424-473E-9AE0-27F2C4D6F6F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -163,6 +182,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{440ADE0D-63F3-4045-8F5A-1B644D10E6C5}" name="TeamMembers" displayName="TeamMembers" ref="B1:C8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B1:C8" xr:uid="{440ADE0D-63F3-4045-8F5A-1B644D10E6C5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{53C31D8E-7DCF-1D45-B8C3-3499DD722DCC}" name="Project"/>
+    <tableColumn id="2" xr3:uid="{FD89C443-F95F-5744-9C17-88BD42DF6272}" name="Team"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,7 +494,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -568,6 +598,9 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
